--- a/guiasYformatos/cuadernoDeEstudios/formatos/AyudaCodigosGuion.xlsx
+++ b/guiasYformatos/cuadernoDeEstudios/formatos/AyudaCodigosGuion.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Ayuda" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
@@ -468,6 +468,90 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -477,104 +561,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,7 +635,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>861739</xdr:colOff>
+          <xdr:colOff>861738</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>186710</xdr:rowOff>
         </xdr:to>
@@ -739,15 +739,15 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1000575</xdr:colOff>
+          <xdr:colOff>1000574</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>579286</xdr:rowOff>
+          <xdr:rowOff>579280</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>837802</xdr:colOff>
+          <xdr:colOff>837801</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>4793</xdr:rowOff>
+          <xdr:rowOff>4787</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -794,15 +794,15 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>833015</xdr:colOff>
+          <xdr:colOff>833014</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>579286</xdr:rowOff>
+          <xdr:rowOff>579280</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>722904</xdr:colOff>
+          <xdr:colOff>722903</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>4793</xdr:rowOff>
+          <xdr:rowOff>4787</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -849,15 +849,15 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>722904</xdr:colOff>
+          <xdr:colOff>722903</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>579286</xdr:rowOff>
+          <xdr:rowOff>579280</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>718117</xdr:colOff>
+          <xdr:colOff>718115</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>4793</xdr:rowOff>
+          <xdr:rowOff>4787</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -906,13 +906,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>19150</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>416506</xdr:rowOff>
+          <xdr:rowOff>416507</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1014936</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>181922</xdr:rowOff>
+          <xdr:rowOff>181923</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -961,11 +961,11 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>574493</xdr:rowOff>
+          <xdr:rowOff>574492</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>995787</xdr:colOff>
+          <xdr:colOff>995786</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1301,578 +1301,577 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.85" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="77.06640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="4"/>
-    <col min="3" max="3" width="14.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.06640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" style="4"/>
-    <col min="7" max="7" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8" max="11" width="10.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="10.6640625" style="4"/>
+    <col min="1" max="1" width="77.06640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.06640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" style="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="10.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="63.35" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="10"/>
-      <c r="H5" s="4" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="H6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19" t="str">
+      <c r="D7" s="33" t="str">
         <f>CONCATENATE(H23,"_",I23,"_",J23,"_CO")</f>
         <v>CS_G11_15_CO</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="10"/>
-      <c r="H7" s="4" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>3</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="H9" s="4" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="1">
         <v>4</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="31.7" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="27" t="str">
+      <c r="D10" s="20" t="str">
         <f>CONCATENATE(D7,".docx")</f>
         <v>CS_G11_15_CO.docx</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="29"/>
-      <c r="I10" s="4" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="I10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="1">
         <v>5</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="31.7" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="28" t="str">
+      <c r="D11" s="22" t="str">
         <f>CONCATENATE("GuiaDidactica_",D7,".docx")</f>
         <v>GuiaDidactica_CS_G11_15_CO.docx</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="30"/>
-      <c r="I11" s="4" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="I11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="1">
         <v>6</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="111.2" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="31" t="str">
+      <c r="D12" s="24" t="str">
         <f>CONCATENATE("EsqueletoGuion_",D7,".docx")</f>
         <v>EsqueletoGuion_CS_G11_15_CO.docx</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="I12" s="4" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="1">
         <v>7</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="1">
         <v>8</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="1">
         <v>9</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="1">
         <v>10</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="1">
         <v>11</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J17" s="4">
+      <c r="J17" s="1">
         <v>12</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="J18" s="4">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="J18" s="1">
         <v>13</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="10"/>
-      <c r="J19" s="4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="J19" s="1">
         <v>14</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="33" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="6"/>
-      <c r="J20" s="4">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="3"/>
+      <c r="J20" s="1">
         <v>15</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="63.35" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="J21" s="4">
+      <c r="G21" s="3"/>
+      <c r="J21" s="1">
         <v>16</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="13" t="str">
-        <f>CONCATENATE(H23,"_",I23,"_",J23,"_",K47)</f>
-        <v>CS_G11_15_REC180</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="H22" s="4">
+      <c r="D22" s="17" t="str">
+        <f>CONCATENATE(H23,"_",I23,"_",J23,"_","CO_",K47)</f>
+        <v>CS_G11_15_CO_REC180</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="H22" s="1">
         <v>3</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="1">
         <v>9</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="1">
         <v>15</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="63.35" x14ac:dyDescent="0.45">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="26" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="13" t="str">
+      <c r="D23" s="17" t="str">
         <f>CONCATENATE(D22,".docx")</f>
-        <v>CS_G11_15_REC180.docx</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="H23" s="4" t="str">
+        <v>CS_G11_15_CO_REC180.docx</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="H23" s="1" t="str">
         <f>IF(INDEX(H6:H9,H22)=H6,"MA",IF(INDEX(H6:H9,H22)=H7,"CN",IF(INDEX(H6:H9,H22)=H8,"CS",IF(INDEX(H6:H9,H22)=H9,"LE"))))</f>
         <v>CS</v>
       </c>
-      <c r="I23" s="4" t="str">
+      <c r="I23" s="1" t="str">
         <f>CONCATENATE("G",IF((I22+2)&lt;10,"0",""),I22+2)</f>
         <v>G11</v>
       </c>
-      <c r="J23" s="4" t="str">
+      <c r="J23" s="1" t="str">
         <f>CONCATENATE(IF(J22&lt;10,"0",""),J22)</f>
         <v>15</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="10"/>
-      <c r="K24" s="4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="K24" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="127.05" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="K25" s="4">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="K25" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="K26" s="4">
+      <c r="K26" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="H27" s="4">
+      <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="K28" s="4">
+      <c r="K28" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="K29" s="4">
+      <c r="K29" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="K30" s="4">
+      <c r="K30" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="K31" s="4">
+      <c r="K31" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="K32" s="4">
+      <c r="K32" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K33" s="4">
+      <c r="K33" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K34" s="4">
+      <c r="K34" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K35" s="4">
+      <c r="K35" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K36" s="4">
+      <c r="K36" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K37" s="4">
+      <c r="K37" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K38" s="4">
+      <c r="K38" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K39" s="4">
+      <c r="K39" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K40" s="4">
+      <c r="K40" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K41" s="4">
+      <c r="K41" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K42" s="4">
+      <c r="K42" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K43" s="4">
+      <c r="K43" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K44" s="4">
+      <c r="K44" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K45" s="4">
+      <c r="K45" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K46" s="4">
+      <c r="K46" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K47" s="4" t="str">
+      <c r="K47" s="1" t="str">
         <f>CONCATENATE("REC",K46,0)</f>
         <v>REC180</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jPDckB5BPf/yhm4Pe/y4EnysvPp3q4xwuIjg5qzE9y33Xg2nkznyFoXJrDwgz9W8lPu/b9F6Re8hOL2l5E4qNw==" saltValue="deLg40c8iQTyTSzzduYzFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D22:F22"/>

--- a/guiasYformatos/cuadernoDeEstudios/formatos/AyudaCodigosGuion.xlsx
+++ b/guiasYformatos/cuadernoDeEstudios/formatos/AyudaCodigosGuion.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Ayuda" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -85,9 +85,6 @@
     <t>Cuarto</t>
   </si>
   <si>
-    <t>2. Luego, separado por un guión bajo, las siguientes tres siglas corresponden al grado. Siempre inician con la letra G y van seguido del número del grado, SIEMPRE con dos dígitos: G03 para tercero de primaria, G05 para quinto, G10 para décimo y G11 para undécimo.</t>
-  </si>
-  <si>
     <t>Quinto</t>
   </si>
   <si>
@@ -154,16 +151,19 @@
     <t>¿Cómo determina este código los nombres de las imágenes dentro del Cuaderno de Estudio?</t>
   </si>
   <si>
-    <t>Las imágenes (fotografías, ilustraciones, gráficos) que se deben incluir en el Cuaderno de estudio, deben aparecer en el Manuscrito, debidamente referenciadas. Para esto es necesario utilizar el código de guión para crear el código de la imagen correspondiente, adicionando las siglas IMG y un número consecutivo (de uno en uno) de dos caracteres; es decir, si el número consecutivo es menor que diez, se debe acompañar de un 0. Por ejemplo la cuarta imagen en un manuscrito tendrá el consecutivo 04 y la imagen, propiamente, tendrá un nombre de archivo como CS_G11_15_CO_IMG04.</t>
-  </si>
-  <si>
     <t>Se utilizan las mismas tres partes iniciales del código de guión (un recurso pertenece a un guión o tema), adicionando una sigla que inicia con REC y que continúa con una numeración continua, de diez en diez, determinada en el Manuscrito del guión correspondiente.</t>
   </si>
   <si>
     <t>¿Cómo determina este código los nombres de las imágenes dentro de un recurso?</t>
   </si>
   <si>
-    <t>Las imágenes (fotografías, ilustraciones, gráficos) que se deben incluir en recurso, deben aparecer en el formato de dicho recurso, debidamente referenciadas. Para esto es necesario utilizar el código de recurso para crear el código de la imagen correspondiente, adicionando las siglas IMG y un número consecutivo (de uno en uno) de dos caracteres; es decir, si el número consecutivo es menor que diez, se debe acompañar de un 0. Por ejemplo la cuarta imagen en un recurso tendrá el consecutivo 04 y la imagen, propiamente, tendrá un nombre de archivo como CS_G11_15_REC180_IMG04.</t>
+    <t>2. Luego, separado por un guión bajo, las siglas que corresponden al grado, SIEMPRE con dos dígitos: 03 para tercero de primaria, 05 para quinto, 10 para décimo y 11 para undécimo.</t>
+  </si>
+  <si>
+    <t>Las imágenes (fotografías, ilustraciones, gráficos) que se deben incluir en el Cuaderno de estudio, deben aparecer en el Manuscrito, debidamente referenciadas. Para esto es necesario utilizar el código de guión para crear el código de la imagen correspondiente, adicionando las siglas IMG y un número consecutivo (de uno en uno) de dos caracteres; es decir, si el número consecutivo es menor que diez, se debe acompañar de un 0. Por ejemplo la cuarta imagen en un manuscrito tendrá el consecutivo 04 y la imagen, propiamente, tendrá un nombre de archivo como CS_11_15_CO_IMG04.</t>
+  </si>
+  <si>
+    <t>Las imágenes (fotografías, ilustraciones, gráficos) que se deben incluir en recurso, deben aparecer en el formato de dicho recurso, debidamente referenciadas. Para esto es necesario utilizar el código de recurso para crear el código de la imagen correspondiente, adicionando las siglas IMG y un número consecutivo (de uno en uno) de dos caracteres; es decir, si el número consecutivo es menor que diez, se debe acompañar de un 0. Por ejemplo la cuarta imagen en un recurso tendrá el consecutivo 04 y la imagen, propiamente, tendrá un nombre de archivo como CS_11_15_REC180_IMG04.</t>
   </si>
 </sst>
 </file>
@@ -741,12 +741,12 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1000574</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>579280</xdr:rowOff>
+          <xdr:rowOff>780352</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>837801</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>4787</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -796,12 +796,12 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>833014</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>579280</xdr:rowOff>
+          <xdr:rowOff>780352</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>722903</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>4787</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -851,12 +851,12 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>722903</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>579280</xdr:rowOff>
+          <xdr:rowOff>780352</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>718115</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>4787</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -961,12 +961,12 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>574492</xdr:rowOff>
+          <xdr:rowOff>775564</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>995786</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.85" x14ac:dyDescent="0.45"/>
@@ -1320,7 +1320,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="D7" s="33" t="str">
         <f>CONCATENATE(H23,"_",I23,"_",J23,"_CO")</f>
-        <v>CS_G11_15_CO</v>
+        <v>CS_11_15_CO</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="4"/>
@@ -1430,9 +1430,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" ht="47.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1454,11 +1454,11 @@
     </row>
     <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -1478,20 +1478,20 @@
     </row>
     <row r="10" spans="1:11" ht="31.7" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="20" t="str">
         <f>CONCATENATE(D7,".docx")</f>
-        <v>CS_G11_15_CO.docx</v>
+        <v>CS_11_15_CO.docx</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
       <c r="I10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1">
         <v>5</v>
@@ -1502,20 +1502,20 @@
     </row>
     <row r="11" spans="1:11" ht="31.7" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="22" t="str">
         <f>CONCATENATE("GuiaDidactica_",D7,".docx")</f>
-        <v>GuiaDidactica_CS_G11_15_CO.docx</v>
+        <v>GuiaDidactica_CS_11_15_CO.docx</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
       <c r="I11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1">
         <v>6</v>
@@ -1526,20 +1526,20 @@
     </row>
     <row r="12" spans="1:11" ht="111.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="24" t="str">
         <f>CONCATENATE("EsqueletoGuion_",D7,".docx")</f>
-        <v>EsqueletoGuion_CS_G11_15_CO.docx</v>
+        <v>EsqueletoGuion_CS_11_15_CO.docx</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
       <c r="I12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1">
         <v>7</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1">
         <v>8</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1">
         <v>9</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" s="1">
         <v>10</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16" s="1">
         <v>11</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -1632,11 +1632,11 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="21" spans="1:11" ht="63.35" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
@@ -1664,7 +1664,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="3"/>
       <c r="J21" s="1">
@@ -1676,7 +1676,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="14" t="s">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="D22" s="17" t="str">
         <f>CONCATENATE(H23,"_",I23,"_",J23,"_","CO_",K47)</f>
-        <v>CS_G11_15_CO_REC180</v>
+        <v>CS_11_15_CO_REC180</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="23" spans="1:11" ht="63.35" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="17" t="str">
         <f>CONCATENATE(D22,".docx")</f>
-        <v>CS_G11_15_CO_REC180.docx</v>
+        <v>CS_11_15_CO_REC180.docx</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
@@ -1720,8 +1720,8 @@
         <v>CS</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>CONCATENATE("G",IF((I22+2)&lt;10,"0",""),I22+2)</f>
-        <v>G11</v>
+        <f>CONCATENATE(IF((I22+2)&lt;10,"0",""),I22+2)</f>
+        <v>11</v>
       </c>
       <c r="J23" s="1" t="str">
         <f>CONCATENATE(IF(J22&lt;10,"0",""),J22)</f>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1950,12 +1950,12 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1000574</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>579280</xdr:rowOff>
+                    <xdr:rowOff>780352</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>837801</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>4787</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1972,12 +1972,12 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>833014</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>579280</xdr:rowOff>
+                    <xdr:rowOff>780352</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>722903</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>4787</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1994,12 +1994,12 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>722903</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>579280</xdr:rowOff>
+                    <xdr:rowOff>780352</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>718115</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>4787</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2038,12 +2038,12 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>574492</xdr:rowOff>
+                    <xdr:rowOff>775564</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>995786</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/guiasYformatos/cuadernoDeEstudios/formatos/AyudaCodigosGuion.xlsx
+++ b/guiasYformatos/cuadernoDeEstudios/formatos/AyudaCodigosGuion.xlsx
@@ -595,31 +595,31 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="9" dropStyle="combo" dx="33" fmlaLink="$I$22" fmlaRange="$I$8:$I$16" noThreeD="1" sel="9" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="9" dropStyle="combo" dx="33" fmlaLink="$I$22" fmlaRange="$I$8:$I$16" noThreeD="1" sel="5" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$22" fmlaRange="$J$6:$J$21" noThreeD="1" sel="15" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$22" fmlaRange="$J$6:$J$21" noThreeD="1" sel="9" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="9" dropStyle="combo" dx="33" fmlaLink="$I$22" fmlaRange="$I$8:$I$16" noThreeD="1" sel="9" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="9" dropStyle="combo" dx="33" fmlaLink="$I$22" fmlaRange="$I$8:$I$16" noThreeD="1" sel="5" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$22" fmlaRange="$J$6:$J$21" noThreeD="1" sel="15" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$22" fmlaRange="$J$6:$J$21" noThreeD="1" sel="9" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$46" fmlaRange="$K$6:$K$45" noThreeD="1" sel="18" val="13"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$46" fmlaRange="$K$6:$K$45" noThreeD="1" sel="13" val="5"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="33" fmlaLink="$H$22" fmlaRange="$H$6:$H$9" noThreeD="1" sel="3" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="33" fmlaLink="$H$22" fmlaRange="$H$6:$H$9" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="33" fmlaLink="$H$22" fmlaRange="$H$6:$H$9" noThreeD="1" sel="3" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="33" fmlaLink="$H$22" fmlaRange="$H$6:$H$9" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D11" sqref="D11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.85" x14ac:dyDescent="0.45"/>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="D7" s="33" t="str">
         <f>CONCATENATE(H23,"_",I23,"_",J23,"_CO")</f>
-        <v>CS_11_15_CO</v>
+        <v>CN_07_09_CO</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="4"/>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D10" s="20" t="str">
         <f>CONCATENATE(D7,".docx")</f>
-        <v>CS_11_15_CO.docx</v>
+        <v>CN_07_09_CO.docx</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="D11" s="22" t="str">
         <f>CONCATENATE("GuiaDidactica_",D7,".docx")</f>
-        <v>GuiaDidactica_CS_11_15_CO.docx</v>
+        <v>GuiaDidactica_CN_07_09_CO.docx</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D12" s="24" t="str">
         <f>CONCATENATE("EsqueletoGuion_",D7,".docx")</f>
-        <v>EsqueletoGuion_CS_11_15_CO.docx</v>
+        <v>EsqueletoGuion_CN_07_09_CO.docx</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
@@ -1684,18 +1684,18 @@
       </c>
       <c r="D22" s="17" t="str">
         <f>CONCATENATE(H23,"_",I23,"_",J23,"_","CO_",K47)</f>
-        <v>CS_11_15_CO_REC180</v>
+        <v>CN_07_09_CO_REC130</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="H22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1">
         <v>9</v>
-      </c>
-      <c r="J22" s="1">
-        <v>15</v>
       </c>
       <c r="K22" s="1">
         <v>17</v>
@@ -1711,21 +1711,21 @@
       </c>
       <c r="D23" s="17" t="str">
         <f>CONCATENATE(D22,".docx")</f>
-        <v>CS_11_15_CO_REC180.docx</v>
+        <v>CN_07_09_CO_REC130.docx</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
       <c r="H23" s="1" t="str">
         <f>IF(INDEX(H6:H9,H22)=H6,"MA",IF(INDEX(H6:H9,H22)=H7,"CN",IF(INDEX(H6:H9,H22)=H8,"CS",IF(INDEX(H6:H9,H22)=H9,"LE"))))</f>
-        <v>CS</v>
+        <v>CN</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>CONCATENATE(IF((I22+2)&lt;10,"0",""),I22+2)</f>
-        <v>11</v>
+        <v>07</v>
       </c>
       <c r="J23" s="1" t="str">
         <f>CONCATENATE(IF(J22&lt;10,"0",""),J22)</f>
-        <v>15</v>
+        <v>09</v>
       </c>
       <c r="K23" s="1">
         <v>18</v>
@@ -1862,13 +1862,13 @@
     </row>
     <row r="46" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K46" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K47" s="1" t="str">
         <f>CONCATENATE("REC",K46,0)</f>
-        <v>REC180</v>
+        <v>REC130</v>
       </c>
     </row>
   </sheetData>
